--- a/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
+++ b/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>15.7809911585817</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.3140451963266652</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1813083501906684</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.369804668607517</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.252548621808928</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>8.201905709305551</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.01192442588186327</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05945863418716368</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.6229669489973992</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.545038713460466</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>7.289593061123975</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.09108429311841872</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.08088028472718183</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.2469641238158641</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.696916961609168</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +956,18 @@
       <c r="H14" t="n">
         <v>7.583627728075383</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.1382426405720013</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.08266941674490137</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.07541177259011571</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.527789823642735</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,10 +1034,18 @@
       <c r="H16" t="n">
         <v>9.90375723142076</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>-0.2122046116914344</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1106283518548917</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01699989915821003</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.714388364458852</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1036,10 +1076,18 @@
       <c r="H17" t="n">
         <v>6.361196805944346</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.1902487349673266</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01451571677546724</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.099720594398772e-16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
+++ b/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>9.838753231989887</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.2576168628374579</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3124817461483998</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.06428166151588985</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.096280837135003</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.021674999138468</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.1590101908321545</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6224962746847555</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.05365819701479892</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.748192084962298</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
+++ b/data_processed/20250917/BTCUSDQMOMENT_20250917.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.79148720818062</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3216975593808727</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6701918066130262</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5263752878107336</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.367711971973246</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>5.908878308659542</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.06444003869336853</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6912239929730917</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1355354538661993</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.091729358658431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
